--- a/vignette/csv/parameters_reference.xlsx
+++ b/vignette/csv/parameters_reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19770" windowHeight="8430"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="19770" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="parameters_reference" sheetId="1" r:id="rId1"/>
@@ -29,31 +29,7 @@
     <author>LUONG Ngoc-Du</author>
   </authors>
   <commentList>
-    <comment ref="D42" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>LUONG Ngoc-Du:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-mélange incertitude + variabilité individuelle : éventuellement fixé ?</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F86" authorId="0" shapeId="0">
+    <comment ref="F84" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D113" authorId="0" shapeId="0">
+    <comment ref="D111" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="461">
   <si>
     <t>Workers</t>
   </si>
@@ -1565,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1607,9 +1583,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1635,8 +1608,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,17 +1906,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE210"/>
+  <dimension ref="A1:BE208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="24" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="29" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="29" style="25" customWidth="1"/>
     <col min="4" max="4" width="28.28515625" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="14" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="2" customWidth="1"/>
@@ -1965,10 +1953,10 @@
       <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>351</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -2001,7 +1989,7 @@
       <c r="U1" s="5"/>
     </row>
     <row r="2" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2034,7 +2022,7 @@
       <c r="AG2" s="8"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="8" t="s">
         <v>335</v>
       </c>
@@ -2065,12 +2053,28 @@
       <c r="AG3" s="8"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>221</v>
+      </c>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
@@ -2082,19 +2086,19 @@
       <c r="AG4" s="8"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F5" s="2">
-        <v>0.36</v>
+        <v>0.47</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>226</v>
@@ -2113,24 +2117,25 @@
       <c r="AG5" s="8"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F6" s="2">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
@@ -2143,12 +2148,13 @@
       <c r="AG6" s="8"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>167</v>
@@ -2160,7 +2166,7 @@
         <v>226</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
@@ -2173,19 +2179,19 @@
       <c r="AG7" s="8"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F8" s="2">
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>226</v>
@@ -2204,13 +2210,13 @@
       <c r="AG8" s="8"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>167</v>
@@ -2235,25 +2241,27 @@
       <c r="AG9" s="8"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="27" t="s">
+        <v>352</v>
+      </c>
       <c r="C10" s="8" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F10" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
@@ -2266,12 +2274,26 @@
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
@@ -2283,25 +2305,25 @@
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>353</v>
-      </c>
+      <c r="A12" s="28"/>
+      <c r="B12" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F12" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
@@ -2314,25 +2336,25 @@
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="s">
-        <v>354</v>
-      </c>
+      <c r="A13" s="28"/>
+      <c r="B13" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.5</v>
+      <c r="F13" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
@@ -2345,22 +2367,22 @@
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F14" s="2">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>224</v>
@@ -2376,25 +2398,18 @@
       <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="C15" s="8"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>365</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>167</v>
+        <v>366</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>221</v>
+        <v>367</v>
       </c>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
@@ -2407,25 +2422,25 @@
       <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C16" s="8"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="F16" s="2">
-        <v>5</v>
+        <v>0.17</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
@@ -2438,18 +2453,25 @@
       <c r="AG16" s="8"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8" t="s">
-        <v>364</v>
-      </c>
+      <c r="A17" s="28"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
@@ -2462,25 +2484,25 @@
       <c r="AG17" s="8"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F18" s="2">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
@@ -2493,25 +2515,25 @@
       <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F19" s="2">
-        <v>0.17</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
@@ -2524,25 +2546,22 @@
       <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="2">
-        <v>0.38</v>
+      <c r="F20" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
@@ -2555,25 +2574,22 @@
       <c r="AG20" s="8"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="2">
-        <v>0.56999999999999995</v>
+      <c r="F21" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
@@ -2586,22 +2602,25 @@
       <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>56</v>
+      <c r="F22" s="2">
+        <v>0.25</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>226</v>
+        <v>157</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -2614,22 +2633,25 @@
       <c r="AG22" s="8"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>226</v>
+      <c r="H23" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
@@ -2642,25 +2664,27 @@
       <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="27" t="s">
+        <v>391</v>
+      </c>
       <c r="C24" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F24" s="2">
-        <v>0.25</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
@@ -2673,25 +2697,25 @@
       <c r="AG24" s="8"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="8" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F25" s="2">
-        <v>0.375</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
@@ -2704,21 +2728,19 @@
       <c r="AG25" s="8"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="8" t="s">
-        <v>391</v>
-      </c>
+      <c r="A26" s="28"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F26" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>226</v>
@@ -2737,19 +2759,19 @@
       <c r="AG26" s="8"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>143</v>
       </c>
       <c r="F27" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>226</v>
@@ -2768,19 +2790,19 @@
       <c r="AG27" s="8"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="2">
-        <v>3.7999999999999999E-2</v>
+      <c r="F28" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>226</v>
@@ -2799,19 +2821,19 @@
       <c r="AG28" s="8"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F29" s="2">
-        <v>5.7000000000000002E-2</v>
+      <c r="F29" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>226</v>
@@ -2830,19 +2852,19 @@
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>56</v>
+      <c r="F30" s="2">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>226</v>
@@ -2861,19 +2883,19 @@
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>56</v>
+      <c r="F31" s="2">
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>226</v>
@@ -2892,26 +2914,12 @@
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>242</v>
-      </c>
+      <c r="A32" s="28"/>
+      <c r="B32" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="1"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
@@ -2923,25 +2931,14 @@
       <c r="AG32" s="8"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>242</v>
+        <v>365</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="F33" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
@@ -2954,31 +2951,58 @@
       <c r="AG33" s="8"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="1"/>
-      <c r="Y34" s="8"/>
+        <v>398</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y34" s="16"/>
       <c r="Z34" s="8"/>
-      <c r="AA34" s="8"/>
+      <c r="AA34" s="16"/>
       <c r="AB34" s="8"/>
-      <c r="AC34" s="8"/>
+      <c r="AC34" s="16"/>
       <c r="AD34" s="8"/>
-      <c r="AE34" s="8"/>
+      <c r="AE34" s="16"/>
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="F35" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
@@ -2991,58 +3015,52 @@
       <c r="AG35" s="8"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>392</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F36" s="2">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y36" s="16"/>
+        <v>278</v>
+      </c>
+      <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
-      <c r="AA36" s="16"/>
+      <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
-      <c r="AC36" s="16"/>
+      <c r="AC36" s="8"/>
       <c r="AD36" s="8"/>
-      <c r="AE36" s="16"/>
+      <c r="AE36" s="8"/>
       <c r="AF36" s="8"/>
       <c r="AG36" s="8"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8" t="s">
         <v>393</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="F37" s="2">
-        <v>0.6</v>
+      <c r="F37" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
@@ -3055,24 +3073,25 @@
       <c r="AG37" s="8"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>392</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0.9</v>
+        <v>9</v>
+      </c>
+      <c r="F38" s="26">
+        <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>278</v>
+        <v>226</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
@@ -3085,22 +3104,25 @@
       <c r="AG38" s="8"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8" t="s">
-        <v>393</v>
-      </c>
+      <c r="A39" s="28"/>
+      <c r="B39" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>317</v>
+        <v>226</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
@@ -3113,25 +3135,24 @@
       <c r="AG39" s="8"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C40" s="8"/>
+        <v>412</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="D40" s="1" t="s">
-        <v>402</v>
+        <v>1</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>164</v>
+        <v>105</v>
+      </c>
+      <c r="F40" s="2">
+        <v>3</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
@@ -3144,25 +3165,22 @@
       <c r="AG40" s="8"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C41" s="8"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>405</v>
+      </c>
       <c r="D41" s="1" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>327</v>
+        <v>105</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
@@ -3175,24 +3193,22 @@
       <c r="AG41" s="8"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="8" t="s">
-        <v>412</v>
-      </c>
+      <c r="A42" s="28"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="14" t="s">
         <v>105</v>
       </c>
       <c r="F42" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
@@ -3205,22 +3221,22 @@
       <c r="AG42" s="8"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>105</v>
       </c>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
@@ -3233,22 +3249,22 @@
       <c r="AG43" s="8"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="2">
-        <v>8</v>
+      <c r="F44" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
@@ -3261,22 +3277,22 @@
       <c r="AG44" s="8"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="E45" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="2">
-        <v>8</v>
+      <c r="F45" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
@@ -3289,22 +3305,19 @@
       <c r="AG45" s="8"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8" t="s">
-        <v>408</v>
-      </c>
+      <c r="A46" s="28"/>
+      <c r="B46" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="1" t="s">
-        <v>180</v>
+        <v>411</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>182</v>
+        <v>143</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.33500000000000002</v>
       </c>
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
@@ -3317,22 +3330,19 @@
       <c r="AG46" s="8"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8" t="s">
-        <v>409</v>
-      </c>
+      <c r="A47" s="28"/>
+      <c r="B47" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C47" s="8"/>
       <c r="D47" s="1" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
@@ -3345,19 +3355,25 @@
       <c r="AG47" s="8"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="8" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="1" t="s">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.33500000000000002</v>
+        <v>105</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
@@ -3369,21 +3385,35 @@
       <c r="AF48" s="8"/>
       <c r="AG48" s="8"/>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+    <row r="49" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="B49" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="1" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F49" s="2">
+        <v>42</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
@@ -3395,25 +3425,19 @@
       <c r="AG49" s="8"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="1" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>227</v>
+        <v>147</v>
+      </c>
+      <c r="F50" s="2">
+        <v>5</v>
       </c>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
@@ -3426,34 +3450,22 @@
       <c r="AG50" s="8"/>
     </row>
     <row r="51" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C51" s="8"/>
+      <c r="A51" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C51" s="22"/>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="2">
-        <v>42</v>
-      </c>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
@@ -3464,20 +3476,17 @@
       <c r="AF51" s="8"/>
       <c r="AG51" s="8"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="52" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D52" s="1"/>
       <c r="E52" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" s="2">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
@@ -3489,22 +3498,23 @@
       <c r="AF52" s="8"/>
       <c r="AG52" s="8"/>
     </row>
-    <row r="53" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="C53" s="23"/>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A53" s="30"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22" t="s">
+        <v>421</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
@@ -3516,17 +3526,21 @@
       <c r="AF53" s="8"/>
       <c r="AG53" s="8"/>
     </row>
-    <row r="54" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="D54" s="1"/>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E54" s="14" t="s">
-        <v>420</v>
+        <v>171</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
@@ -3539,19 +3553,17 @@
       <c r="AG54" s="8"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23" t="s">
-        <v>421</v>
-      </c>
+      <c r="A55" s="30"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>213</v>
@@ -3567,17 +3579,19 @@
       <c r="AG55" s="8"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22" t="s">
+        <v>422</v>
+      </c>
       <c r="D56" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>213</v>
@@ -3593,17 +3607,17 @@
       <c r="AG56" s="8"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>213</v>
@@ -3619,19 +3633,17 @@
       <c r="AG57" s="8"/>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23" t="s">
-        <v>422</v>
-      </c>
+      <c r="A58" s="30"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>213</v>
@@ -3647,17 +3659,19 @@
       <c r="AG58" s="8"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22" t="s">
+        <v>423</v>
+      </c>
       <c r="D59" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>213</v>
@@ -3673,17 +3687,17 @@
       <c r="AG59" s="8"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
       <c r="D60" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>213</v>
@@ -3699,19 +3713,17 @@
       <c r="AG60" s="8"/>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23" t="s">
-        <v>423</v>
-      </c>
+      <c r="A61" s="30"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>213</v>
@@ -3727,17 +3739,19 @@
       <c r="AG61" s="8"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="D62" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>213</v>
@@ -3753,17 +3767,17 @@
       <c r="AG62" s="8"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>213</v>
@@ -3779,19 +3793,17 @@
       <c r="AG63" s="8"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23" t="s">
-        <v>424</v>
-      </c>
+      <c r="A64" s="30"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>171</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>213</v>
@@ -3807,20 +3819,24 @@
       <c r="AG64" s="8"/>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>426</v>
+      </c>
       <c r="D65" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
@@ -3832,21 +3848,23 @@
       <c r="AF65" s="8"/>
       <c r="AG65" s="8"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
+    <row r="66" spans="1:33" ht="24" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="B66" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C66" s="22"/>
       <c r="D66" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="F66" s="2">
+        <v>500</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
@@ -3859,24 +3877,20 @@
       <c r="AG66" s="8"/>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>426</v>
+      <c r="A67" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>365</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
@@ -3888,24 +3902,41 @@
       <c r="AF67" s="8"/>
       <c r="AG67" s="8"/>
     </row>
-    <row r="68" spans="1:33" ht="24" x14ac:dyDescent="0.2">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="C68" s="23"/>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A68" s="28"/>
+      <c r="B68" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>431</v>
+      </c>
       <c r="D68" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F68" s="2">
-        <v>500</v>
+        <v>178</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
       <c r="AA68" s="8"/>
@@ -3917,21 +3948,38 @@
       <c r="AG68" s="8"/>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>428</v>
-      </c>
+      <c r="A69" s="28"/>
+      <c r="B69" s="27"/>
       <c r="C69" s="8" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>429</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
       <c r="AA69" s="8"/>
@@ -3943,21 +3991,19 @@
       <c r="AG69" s="8"/>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="8" t="s">
-        <v>430</v>
-      </c>
+      <c r="A70" s="28"/>
+      <c r="B70" s="27"/>
       <c r="C70" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>214</v>
@@ -3967,13 +4013,13 @@
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="17"/>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -3988,19 +4034,19 @@
       <c r="AG70" s="8"/>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="8"/>
+      <c r="A71" s="28"/>
+      <c r="B71" s="27"/>
       <c r="C71" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>214</v>
@@ -4010,13 +4056,13 @@
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
+      <c r="O71" s="29"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
       <c r="R71" s="9"/>
       <c r="S71" s="9"/>
       <c r="T71" s="9"/>
@@ -4031,19 +4077,19 @@
       <c r="AG71" s="8"/>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="28"/>
+      <c r="B72" s="27"/>
       <c r="C72" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>214</v>
@@ -4051,18 +4097,6 @@
       <c r="H72" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
       <c r="Y72" s="8"/>
       <c r="Z72" s="8"/>
       <c r="AA72" s="8"/>
@@ -4074,19 +4108,19 @@
       <c r="AG72" s="8"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="28"/>
+      <c r="B73" s="27"/>
       <c r="C73" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>214</v>
@@ -4094,18 +4128,6 @@
       <c r="H73" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
       <c r="Y73" s="8"/>
       <c r="Z73" s="8"/>
       <c r="AA73" s="8"/>
@@ -4117,19 +4139,19 @@
       <c r="AG73" s="8"/>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="28"/>
+      <c r="B74" s="27"/>
       <c r="C74" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E74" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>214</v>
@@ -4148,19 +4170,19 @@
       <c r="AG74" s="8"/>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="28"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>214</v>
@@ -4179,19 +4201,19 @@
       <c r="AG75" s="8"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="8"/>
+      <c r="A76" s="28"/>
+      <c r="B76" s="27"/>
       <c r="C76" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E76" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>214</v>
@@ -4210,19 +4232,19 @@
       <c r="AG76" s="8"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="8"/>
+      <c r="A77" s="28"/>
+      <c r="B77" s="27"/>
       <c r="C77" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E77" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>214</v>
@@ -4241,19 +4263,19 @@
       <c r="AG77" s="8"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="8"/>
+      <c r="A78" s="28"/>
+      <c r="B78" s="27"/>
       <c r="C78" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>214</v>
@@ -4272,19 +4294,19 @@
       <c r="AG78" s="8"/>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="8"/>
+      <c r="A79" s="28"/>
+      <c r="B79" s="27"/>
       <c r="C79" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>214</v>
@@ -4303,19 +4325,19 @@
       <c r="AG79" s="8"/>
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="8"/>
+      <c r="A80" s="28"/>
+      <c r="B80" s="27"/>
       <c r="C80" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>214</v>
@@ -4334,19 +4356,19 @@
       <c r="AG80" s="8"/>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="8"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="27"/>
       <c r="C81" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>214</v>
@@ -4365,19 +4387,19 @@
       <c r="AG81" s="8"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="8"/>
+      <c r="A82" s="28"/>
+      <c r="B82" s="27"/>
       <c r="C82" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E82" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>214</v>
@@ -4396,19 +4418,19 @@
       <c r="AG82" s="8"/>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="8"/>
+      <c r="A83" s="28"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>178</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>214</v>
@@ -4427,25 +4449,27 @@
       <c r="AG83" s="8"/>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="8"/>
+      <c r="A84" s="28"/>
+      <c r="B84" s="27" t="s">
+        <v>447</v>
+      </c>
       <c r="C84" s="8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="Y84" s="8"/>
       <c r="Z84" s="8"/>
@@ -4458,25 +4482,25 @@
       <c r="AG84" s="8"/>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
-      <c r="B85" s="8"/>
+      <c r="A85" s="28"/>
+      <c r="B85" s="27"/>
       <c r="C85" s="8" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="Y85" s="8"/>
       <c r="Z85" s="8"/>
@@ -4489,21 +4513,19 @@
       <c r="AG85" s="8"/>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="8" t="s">
-        <v>447</v>
-      </c>
+      <c r="A86" s="28"/>
+      <c r="B86" s="27"/>
       <c r="C86" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E86" s="14" t="s">
         <v>166</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>226</v>
@@ -4522,19 +4544,19 @@
       <c r="AG86" s="8"/>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="8"/>
+      <c r="A87" s="28"/>
+      <c r="B87" s="27"/>
       <c r="C87" s="8" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" s="14" t="s">
         <v>166</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>226</v>
@@ -4553,19 +4575,21 @@
       <c r="AG87" s="8"/>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="8"/>
+      <c r="A88" s="28"/>
+      <c r="B88" s="27" t="s">
+        <v>451</v>
+      </c>
       <c r="C88" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>231</v>
+        <v>167</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0.6</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>226</v>
@@ -4584,19 +4608,19 @@
       <c r="AG88" s="8"/>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="8"/>
+      <c r="A89" s="28"/>
+      <c r="B89" s="27"/>
       <c r="C89" s="8" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>232</v>
+        <v>167</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0.59</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>226</v>
@@ -4615,21 +4639,19 @@
       <c r="AG89" s="8"/>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="8" t="s">
-        <v>451</v>
-      </c>
+      <c r="A90" s="28"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E90" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F90" s="2">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>226</v>
@@ -4648,19 +4670,19 @@
       <c r="AG90" s="8"/>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="8"/>
+      <c r="A91" s="28"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="8" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F91" s="2">
-        <v>0.59</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>226</v>
@@ -4679,25 +4701,27 @@
       <c r="AG91" s="8"/>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="8"/>
+      <c r="A92" s="28"/>
+      <c r="B92" s="27" t="s">
+        <v>453</v>
+      </c>
       <c r="C92" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F92" s="2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="Y92" s="8"/>
       <c r="Z92" s="8"/>
@@ -4710,25 +4734,25 @@
       <c r="AG92" s="8"/>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="8"/>
+      <c r="A93" s="28"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="8" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F93" s="2">
-        <v>0.58499999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>318</v>
+        <v>224</v>
       </c>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
@@ -4741,15 +4765,13 @@
       <c r="AG93" s="8"/>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="8" t="s">
-        <v>453</v>
-      </c>
+      <c r="A94" s="28"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E94" s="14" t="s">
         <v>166</v>
@@ -4774,13 +4796,13 @@
       <c r="AG94" s="8"/>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="8"/>
+      <c r="A95" s="28"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="8" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E95" s="14" t="s">
         <v>166</v>
@@ -4805,25 +4827,29 @@
       <c r="AG95" s="8"/>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="8"/>
+      <c r="A96" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>455</v>
+      </c>
       <c r="C96" s="8" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F96" s="2">
-        <v>0.5</v>
+        <v>60</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y96" s="8"/>
       <c r="Z96" s="8"/>
@@ -4836,25 +4862,25 @@
       <c r="AG96" s="8"/>
     </row>
     <row r="97" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
+      <c r="A97" s="28"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="F97" s="2">
-        <v>0.5</v>
+        <v>60</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
@@ -4867,23 +4893,19 @@
       <c r="AG97" s="8"/>
     </row>
     <row r="98" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A98" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>455</v>
-      </c>
+      <c r="A98" s="28"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E98" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>226</v>
@@ -4902,19 +4924,19 @@
       <c r="AG98" s="8"/>
     </row>
     <row r="99" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8" t="s">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>226</v>
@@ -4933,19 +4955,19 @@
       <c r="AG99" s="8"/>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
+      <c r="A100" s="28"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>321</v>
+        <v>58</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>226</v>
@@ -4964,28 +4986,26 @@
       <c r="AG100" s="8"/>
     </row>
     <row r="101" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
+      <c r="A101" s="28"/>
       <c r="B101" s="8"/>
-      <c r="C101" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="C101" s="8"/>
       <c r="D101" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>57</v>
+        <v>330</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="Y101" s="8"/>
-      <c r="Z101" s="8"/>
+      <c r="Z101" s="16"/>
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
       <c r="AC101" s="8"/>
@@ -4995,25 +5015,23 @@
       <c r="AG101" s="8"/>
     </row>
     <row r="102" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A102" s="12"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="8"/>
-      <c r="C102" s="8" t="s">
-        <v>459</v>
-      </c>
+      <c r="C102" s="8"/>
       <c r="D102" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>58</v>
+        <v>331</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Y102" s="8"/>
       <c r="Z102" s="8"/>
@@ -5026,26 +5044,23 @@
       <c r="AG102" s="8"/>
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Y103" s="8"/>
-      <c r="Z103" s="16"/>
+      <c r="Z103" s="8"/>
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
       <c r="AC103" s="8"/>
@@ -5055,23 +5070,20 @@
       <c r="AG103" s="8"/>
     </row>
     <row r="104" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A104" s="12"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>331</v>
+        <v>181</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y104" s="8"/>
       <c r="Z104" s="8"/>
@@ -5084,17 +5096,17 @@
       <c r="AG104" s="8"/>
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E105" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>226</v>
@@ -5110,20 +5122,23 @@
       <c r="AG105" s="8"/>
     </row>
     <row r="106" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A106" s="12"/>
+      <c r="A106" s="28"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>181</v>
+        <v>281</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y106" s="8"/>
       <c r="Z106" s="8"/>
@@ -5136,20 +5151,23 @@
       <c r="AG106" s="8"/>
     </row>
     <row r="107" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A107" s="12"/>
+      <c r="A107" s="28"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y107" s="8"/>
       <c r="Z107" s="8"/>
@@ -5162,17 +5180,17 @@
       <c r="AG107" s="8"/>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A108" s="12"/>
+      <c r="A108" s="28"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>226</v>
@@ -5191,17 +5209,17 @@
       <c r="AG108" s="8"/>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A109" s="12"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>226</v>
@@ -5220,17 +5238,17 @@
       <c r="AG109" s="8"/>
     </row>
     <row r="110" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
+      <c r="A110" s="28"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E110" s="14" t="s">
         <v>184</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>226</v>
@@ -5249,20 +5267,20 @@
       <c r="AG110" s="8"/>
     </row>
     <row r="111" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A111" s="12"/>
+      <c r="A111" s="28"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>226</v>
+        <v>313</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>220</v>
@@ -5278,20 +5296,20 @@
       <c r="AG111" s="8"/>
     </row>
     <row r="112" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A112" s="12"/>
+      <c r="A112" s="28"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>220</v>
@@ -5307,20 +5325,20 @@
       <c r="AG112" s="8"/>
     </row>
     <row r="113" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A113" s="12"/>
+      <c r="A113" s="28"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>220</v>
@@ -5336,20 +5354,20 @@
       <c r="AG113" s="8"/>
     </row>
     <row r="114" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A114" s="12"/>
+      <c r="A114" s="28"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>220</v>
@@ -5365,17 +5383,17 @@
       <c r="AG114" s="8"/>
     </row>
     <row r="115" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A115" s="12"/>
+      <c r="A115" s="28"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E115" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>226</v>
@@ -5394,17 +5412,17 @@
       <c r="AG115" s="8"/>
     </row>
     <row r="116" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A116" s="12"/>
+      <c r="A116" s="28"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>226</v>
@@ -5423,17 +5441,17 @@
       <c r="AG116" s="8"/>
     </row>
     <row r="117" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A117" s="12"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>282</v>
+        <v>164</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>226</v>
@@ -5452,17 +5470,17 @@
       <c r="AG117" s="8"/>
     </row>
     <row r="118" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A118" s="12"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>226</v>
@@ -5481,17 +5499,17 @@
       <c r="AG118" s="8"/>
     </row>
     <row r="119" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A119" s="12"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>226</v>
@@ -5510,17 +5528,17 @@
       <c r="AG119" s="8"/>
     </row>
     <row r="120" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A120" s="12"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E120" s="14" t="s">
         <v>184</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>226</v>
@@ -5539,23 +5557,20 @@
       <c r="AG120" s="8"/>
     </row>
     <row r="121" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A121" s="12"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Y121" s="8"/>
       <c r="Z121" s="8"/>
@@ -5568,23 +5583,20 @@
       <c r="AG121" s="8"/>
     </row>
     <row r="122" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A122" s="12"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Y122" s="8"/>
       <c r="Z122" s="8"/>
@@ -5597,20 +5609,23 @@
       <c r="AG122" s="8"/>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A123" s="12"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y123" s="8"/>
       <c r="Z123" s="8"/>
@@ -5623,20 +5638,23 @@
       <c r="AG123" s="8"/>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A124" s="12"/>
+      <c r="A124" s="28"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y124" s="8"/>
       <c r="Z124" s="8"/>
@@ -5649,17 +5667,17 @@
       <c r="AG124" s="8"/>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A125" s="12"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E125" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>226</v>
@@ -5678,17 +5696,17 @@
       <c r="AG125" s="8"/>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A126" s="12"/>
+      <c r="A126" s="28"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>321</v>
+        <v>164</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>226</v>
@@ -5707,17 +5725,17 @@
       <c r="AG126" s="8"/>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A127" s="12"/>
+      <c r="A127" s="28"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>226</v>
@@ -5736,17 +5754,17 @@
       <c r="AG127" s="8"/>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A128" s="12"/>
+      <c r="A128" s="28"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>226</v>
@@ -5765,17 +5783,17 @@
       <c r="AG128" s="8"/>
     </row>
     <row r="129" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A129" s="12"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>226</v>
@@ -5794,17 +5812,17 @@
       <c r="AG129" s="8"/>
     </row>
     <row r="130" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A130" s="12"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E130" s="14" t="s">
         <v>184</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>226</v>
@@ -5823,23 +5841,20 @@
       <c r="AG130" s="8"/>
     </row>
     <row r="131" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A131" s="12"/>
+      <c r="A131" s="28"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Y131" s="8"/>
       <c r="Z131" s="8"/>
@@ -5852,23 +5867,20 @@
       <c r="AG131" s="8"/>
     </row>
     <row r="132" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A132" s="12"/>
+      <c r="A132" s="28"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="Y132" s="8"/>
       <c r="Z132" s="8"/>
@@ -5881,20 +5893,20 @@
       <c r="AG132" s="8"/>
     </row>
     <row r="133" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A133" s="12"/>
+      <c r="A133" s="28"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="1" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>226</v>
+        <v>165</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y133" s="8"/>
       <c r="Z133" s="8"/>
@@ -5907,20 +5919,20 @@
       <c r="AG133" s="8"/>
     </row>
     <row r="134" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A134" s="12"/>
+      <c r="A134" s="28"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="1" t="s">
-        <v>72</v>
+        <v>287</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>312</v>
+        <v>165</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y134" s="8"/>
       <c r="Z134" s="8"/>
@@ -5933,17 +5945,17 @@
       <c r="AG134" s="8"/>
     </row>
     <row r="135" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A135" s="12"/>
+      <c r="A135" s="28"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E135" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>220</v>
@@ -5959,17 +5971,17 @@
       <c r="AG135" s="8"/>
     </row>
     <row r="136" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A136" s="12"/>
+      <c r="A136" s="28"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>220</v>
@@ -5985,17 +5997,17 @@
       <c r="AG136" s="8"/>
     </row>
     <row r="137" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A137" s="12"/>
+      <c r="A137" s="28"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>220</v>
@@ -6011,17 +6023,17 @@
       <c r="AG137" s="8"/>
     </row>
     <row r="138" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A138" s="12"/>
+      <c r="A138" s="28"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>220</v>
@@ -6037,17 +6049,17 @@
       <c r="AG138" s="8"/>
     </row>
     <row r="139" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A139" s="12"/>
+      <c r="A139" s="28"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>220</v>
@@ -6063,17 +6075,17 @@
       <c r="AG139" s="8"/>
     </row>
     <row r="140" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A140" s="12"/>
+      <c r="A140" s="28"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E140" s="14" t="s">
         <v>184</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>220</v>
@@ -6089,20 +6101,17 @@
       <c r="AG140" s="8"/>
     </row>
     <row r="141" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A141" s="12"/>
+      <c r="A141" s="28"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="Y141" s="8"/>
       <c r="Z141" s="8"/>
@@ -6115,20 +6124,17 @@
       <c r="AG141" s="8"/>
     </row>
     <row r="142" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A142" s="12"/>
+      <c r="A142" s="28"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E142" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="Y142" s="8"/>
       <c r="Z142" s="8"/>
@@ -6141,17 +6147,23 @@
       <c r="AG142" s="8"/>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A143" s="12"/>
+      <c r="A143" s="28"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="1" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>299</v>
+        <v>165</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y143" s="8"/>
       <c r="Z143" s="8"/>
@@ -6164,17 +6176,23 @@
       <c r="AG143" s="8"/>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A144" s="12"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="1" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y144" s="8"/>
       <c r="Z144" s="8"/>
@@ -6187,17 +6205,17 @@
       <c r="AG144" s="8"/>
     </row>
     <row r="145" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A145" s="12"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E145" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>226</v>
@@ -6216,17 +6234,17 @@
       <c r="AG145" s="8"/>
     </row>
     <row r="146" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A146" s="12"/>
+      <c r="A146" s="28"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E146" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>226</v>
@@ -6245,17 +6263,17 @@
       <c r="AG146" s="8"/>
     </row>
     <row r="147" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A147" s="12"/>
+      <c r="A147" s="28"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>226</v>
@@ -6274,17 +6292,17 @@
       <c r="AG147" s="8"/>
     </row>
     <row r="148" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A148" s="12"/>
+      <c r="A148" s="28"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E148" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>226</v>
@@ -6303,17 +6321,17 @@
       <c r="AG148" s="8"/>
     </row>
     <row r="149" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A149" s="12"/>
+      <c r="A149" s="28"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>226</v>
@@ -6332,17 +6350,17 @@
       <c r="AG149" s="8"/>
     </row>
     <row r="150" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A150" s="12"/>
+      <c r="A150" s="28"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E150" s="14" t="s">
         <v>184</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>226</v>
@@ -6361,23 +6379,20 @@
       <c r="AG150" s="8"/>
     </row>
     <row r="151" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A151" s="12"/>
+      <c r="A151" s="28"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>61</v>
+        <v>299</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
@@ -6390,23 +6405,20 @@
       <c r="AG151" s="8"/>
     </row>
     <row r="152" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A152" s="12"/>
+      <c r="A152" s="28"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
@@ -6419,20 +6431,23 @@
       <c r="AG152" s="8"/>
     </row>
     <row r="153" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A153" s="12"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
@@ -6445,20 +6460,23 @@
       <c r="AG153" s="8"/>
     </row>
     <row r="154" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A154" s="12"/>
+      <c r="A154" s="28"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E154" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
@@ -6471,17 +6489,17 @@
       <c r="AG154" s="8"/>
     </row>
     <row r="155" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A155" s="12"/>
+      <c r="A155" s="28"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>226</v>
@@ -6500,17 +6518,17 @@
       <c r="AG155" s="8"/>
     </row>
     <row r="156" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A156" s="12"/>
+      <c r="A156" s="28"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E156" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>226</v>
@@ -6529,17 +6547,17 @@
       <c r="AG156" s="8"/>
     </row>
     <row r="157" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A157" s="12"/>
+      <c r="A157" s="28"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>226</v>
@@ -6558,17 +6576,17 @@
       <c r="AG157" s="8"/>
     </row>
     <row r="158" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A158" s="12"/>
+      <c r="A158" s="28"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E158" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>226</v>
@@ -6587,17 +6605,17 @@
       <c r="AG158" s="8"/>
     </row>
     <row r="159" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A159" s="12"/>
+      <c r="A159" s="28"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>226</v>
@@ -6616,17 +6634,17 @@
       <c r="AG159" s="8"/>
     </row>
     <row r="160" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A160" s="12"/>
+      <c r="A160" s="28"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>184</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>226</v>
@@ -6645,23 +6663,20 @@
       <c r="AG160" s="8"/>
     </row>
     <row r="161" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A161" s="12"/>
+      <c r="A161" s="28"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Y161" s="8"/>
       <c r="Z161" s="8"/>
@@ -6674,23 +6689,20 @@
       <c r="AG161" s="8"/>
     </row>
     <row r="162" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A162" s="12"/>
+      <c r="A162" s="28"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E162" s="14" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>62</v>
+        <v>302</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>220</v>
       </c>
       <c r="Y162" s="8"/>
       <c r="Z162" s="8"/>
@@ -6703,20 +6715,23 @@
       <c r="AG162" s="8"/>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A163" s="12"/>
+      <c r="A163" s="28"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y163" s="8"/>
       <c r="Z163" s="8"/>
@@ -6729,20 +6744,23 @@
       <c r="AG163" s="8"/>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A164" s="12"/>
+      <c r="A164" s="28"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E164" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>302</v>
+        <v>164</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="Y164" s="8"/>
       <c r="Z164" s="8"/>
@@ -6755,17 +6773,17 @@
       <c r="AG164" s="8"/>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A165" s="12"/>
+      <c r="A165" s="28"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>323</v>
+        <v>162</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>226</v>
@@ -6784,17 +6802,17 @@
       <c r="AG165" s="8"/>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A166" s="12"/>
+      <c r="A166" s="28"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="1" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="E166" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>226</v>
@@ -6813,17 +6831,17 @@
       <c r="AG166" s="8"/>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A167" s="12"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>226</v>
@@ -6842,17 +6860,17 @@
       <c r="AG167" s="8"/>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A168" s="12"/>
+      <c r="A168" s="28"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="1" t="s">
-        <v>158</v>
+        <v>97</v>
       </c>
       <c r="E168" s="14" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>226</v>
@@ -6871,17 +6889,17 @@
       <c r="AG168" s="8"/>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A169" s="12"/>
+      <c r="A169" s="28"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>226</v>
@@ -6900,17 +6918,17 @@
       <c r="AG169" s="8"/>
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A170" s="12"/>
+      <c r="A170" s="28"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="1" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="E170" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>226</v>
@@ -6929,17 +6947,17 @@
       <c r="AG170" s="8"/>
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A171" s="12"/>
+      <c r="A171" s="28"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>325</v>
+        <v>164</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>226</v>
@@ -6958,17 +6976,17 @@
       <c r="AG171" s="8"/>
     </row>
     <row r="172" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A172" s="12"/>
+      <c r="A172" s="28"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="1" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="E172" s="14" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>325</v>
+        <v>164</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>226</v>
@@ -6987,17 +7005,17 @@
       <c r="AG172" s="8"/>
     </row>
     <row r="173" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A173" s="12"/>
+      <c r="A173" s="28"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="G173" s="2" t="s">
         <v>226</v>
@@ -7016,17 +7034,17 @@
       <c r="AG173" s="8"/>
     </row>
     <row r="174" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A174" s="12"/>
+      <c r="A174" s="28"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="1" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="E174" s="14" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>164</v>
+        <v>303</v>
       </c>
       <c r="G174" s="2" t="s">
         <v>226</v>
@@ -7045,23 +7063,27 @@
       <c r="AG174" s="8"/>
     </row>
     <row r="175" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A175" s="12"/>
-      <c r="B175" s="8"/>
+      <c r="A175" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>460</v>
+      </c>
       <c r="C175" s="8"/>
       <c r="D175" s="1" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="E175" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>326</v>
+        <v>137</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Y175" s="8"/>
       <c r="Z175" s="8"/>
@@ -7074,23 +7096,23 @@
       <c r="AG175" s="8"/>
     </row>
     <row r="176" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A176" s="12"/>
+      <c r="A176" s="28"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="1" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>303</v>
+        <v>139</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Y176" s="8"/>
       <c r="Z176" s="8"/>
@@ -7103,24 +7125,20 @@
       <c r="AG176" s="8"/>
     </row>
     <row r="177" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A177" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B177" s="8" t="s">
-        <v>460</v>
-      </c>
+      <c r="A177" s="28"/>
+      <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="F177" s="2">
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>224</v>
@@ -7136,23 +7154,23 @@
       <c r="AG177" s="8"/>
     </row>
     <row r="178" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A178" s="12"/>
+      <c r="A178" s="28"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y178" s="8"/>
       <c r="Z178" s="8"/>
@@ -7165,23 +7183,23 @@
       <c r="AG178" s="8"/>
     </row>
     <row r="179" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A179" s="12"/>
+      <c r="A179" s="28"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F179" s="2">
-        <v>10</v>
+        <v>143</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="Y179" s="8"/>
       <c r="Z179" s="8"/>
@@ -7194,24 +7212,10 @@
       <c r="AG179" s="8"/>
     </row>
     <row r="180" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A180" s="12"/>
+      <c r="A180" s="28"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
-      <c r="D180" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E180" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H180" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="D180" s="1"/>
       <c r="Y180" s="8"/>
       <c r="Z180" s="8"/>
       <c r="AA180" s="8"/>
@@ -7223,23 +7227,20 @@
       <c r="AG180" s="8"/>
     </row>
     <row r="181" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A181" s="12"/>
+      <c r="A181" s="28"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G181" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y181" s="8"/>
       <c r="Z181" s="8"/>
@@ -7251,11 +7252,24 @@
       <c r="AF181" s="8"/>
       <c r="AG181" s="8"/>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A182" s="12"/>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="1"/>
+    <row r="182" spans="1:57" ht="24" x14ac:dyDescent="0.2">
+      <c r="A182" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182" s="24"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F182" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="Y182" s="8"/>
       <c r="Z182" s="8"/>
       <c r="AA182" s="8"/>
@@ -7266,72 +7280,114 @@
       <c r="AF182" s="8"/>
       <c r="AG182" s="8"/>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A183" s="12"/>
-      <c r="B183" s="8"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E183" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F183" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y183" s="8"/>
-      <c r="Z183" s="8"/>
-      <c r="AA183" s="8"/>
-      <c r="AB183" s="8"/>
-      <c r="AC183" s="8"/>
-      <c r="AD183" s="8"/>
-      <c r="AE183" s="8"/>
-      <c r="AF183" s="8"/>
-      <c r="AG183" s="8"/>
-    </row>
-    <row r="184" spans="1:57" ht="24" x14ac:dyDescent="0.2">
-      <c r="A184" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B184" s="25"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E184" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F184" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y184" s="8"/>
-      <c r="Z184" s="8"/>
-      <c r="AA184" s="8"/>
-      <c r="AB184" s="8"/>
-      <c r="AC184" s="8"/>
-      <c r="AD184" s="8"/>
-      <c r="AE184" s="8"/>
-      <c r="AF184" s="8"/>
-      <c r="AG184" s="8"/>
-    </row>
-    <row r="185" spans="1:57" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A185" s="27"/>
-      <c r="B185" s="25"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="20" t="s">
+    <row r="183" spans="1:57" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A183" s="31"/>
+      <c r="B183" s="24"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="E185" s="21" t="s">
+      <c r="E183" s="20" t="s">
         <v>211</v>
       </c>
+      <c r="F183" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G183" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I183" s="11"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="11"/>
+      <c r="L183" s="11"/>
+      <c r="M183" s="11"/>
+      <c r="N183" s="11"/>
+      <c r="O183" s="11"/>
+      <c r="P183" s="11"/>
+      <c r="Q183" s="11"/>
+      <c r="R183" s="11"/>
+      <c r="S183" s="11"/>
+      <c r="T183" s="11"/>
+      <c r="Y183" s="22"/>
+      <c r="Z183" s="22"/>
+      <c r="AA183" s="22"/>
+      <c r="AB183" s="22"/>
+      <c r="AC183" s="22"/>
+      <c r="AD183" s="22"/>
+      <c r="AE183" s="22"/>
+      <c r="AF183" s="22"/>
+      <c r="AG183" s="22"/>
+      <c r="AY183" s="6"/>
+      <c r="AZ183" s="6"/>
+      <c r="BA183" s="6"/>
+      <c r="BB183" s="6"/>
+      <c r="BC183" s="6"/>
+      <c r="BD183" s="6"/>
+      <c r="BE183" s="6"/>
+    </row>
+    <row r="184" spans="1:57" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A184" s="31"/>
+      <c r="B184" s="24"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="E184" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G184" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="11"/>
+      <c r="L184" s="11"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
+      <c r="O184" s="11"/>
+      <c r="P184" s="11"/>
+      <c r="Q184" s="11"/>
+      <c r="R184" s="11"/>
+      <c r="S184" s="11"/>
+      <c r="T184" s="11"/>
+      <c r="Y184" s="22"/>
+      <c r="Z184" s="22"/>
+      <c r="AA184" s="22"/>
+      <c r="AB184" s="22"/>
+      <c r="AC184" s="22"/>
+      <c r="AD184" s="22"/>
+      <c r="AE184" s="22"/>
+      <c r="AF184" s="22"/>
+      <c r="AG184" s="22"/>
+      <c r="AY184" s="6"/>
+      <c r="AZ184" s="6"/>
+      <c r="BA184" s="6"/>
+      <c r="BB184" s="6"/>
+      <c r="BC184" s="6"/>
+      <c r="BD184" s="6"/>
+      <c r="BE184" s="6"/>
+    </row>
+    <row r="185" spans="1:57" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A185" s="31"/>
+      <c r="B185" s="24"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E185" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="F185" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>304</v>
@@ -7351,15 +7407,15 @@
       <c r="R185" s="11"/>
       <c r="S185" s="11"/>
       <c r="T185" s="11"/>
-      <c r="Y185" s="23"/>
-      <c r="Z185" s="23"/>
-      <c r="AA185" s="23"/>
-      <c r="AB185" s="23"/>
-      <c r="AC185" s="23"/>
-      <c r="AD185" s="23"/>
-      <c r="AE185" s="23"/>
-      <c r="AF185" s="23"/>
-      <c r="AG185" s="23"/>
+      <c r="Y185" s="22"/>
+      <c r="Z185" s="22"/>
+      <c r="AA185" s="22"/>
+      <c r="AB185" s="22"/>
+      <c r="AC185" s="22"/>
+      <c r="AD185" s="22"/>
+      <c r="AE185" s="22"/>
+      <c r="AF185" s="22"/>
+      <c r="AG185" s="22"/>
       <c r="AY185" s="6"/>
       <c r="AZ185" s="6"/>
       <c r="BA185" s="6"/>
@@ -7368,24 +7424,24 @@
       <c r="BD185" s="6"/>
       <c r="BE185" s="6"/>
     </row>
-    <row r="186" spans="1:57" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A186" s="27"/>
-      <c r="B186" s="25"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="E186" s="21" t="s">
+    <row r="186" spans="1:57" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A186" s="31"/>
+      <c r="B186" s="24"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E186" s="20" t="s">
         <v>211</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>304</v>
       </c>
       <c r="H186" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I186" s="11"/>
       <c r="J186" s="11"/>
@@ -7399,15 +7455,15 @@
       <c r="R186" s="11"/>
       <c r="S186" s="11"/>
       <c r="T186" s="11"/>
-      <c r="Y186" s="23"/>
-      <c r="Z186" s="23"/>
-      <c r="AA186" s="23"/>
-      <c r="AB186" s="23"/>
-      <c r="AC186" s="23"/>
-      <c r="AD186" s="23"/>
-      <c r="AE186" s="23"/>
-      <c r="AF186" s="23"/>
-      <c r="AG186" s="23"/>
+      <c r="Y186" s="22"/>
+      <c r="Z186" s="22"/>
+      <c r="AA186" s="22"/>
+      <c r="AB186" s="22"/>
+      <c r="AC186" s="22"/>
+      <c r="AD186" s="22"/>
+      <c r="AE186" s="22"/>
+      <c r="AF186" s="22"/>
+      <c r="AG186" s="22"/>
       <c r="AY186" s="6"/>
       <c r="AZ186" s="6"/>
       <c r="BA186" s="6"/>
@@ -7416,24 +7472,24 @@
       <c r="BD186" s="6"/>
       <c r="BE186" s="6"/>
     </row>
-    <row r="187" spans="1:57" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A187" s="27"/>
-      <c r="B187" s="25"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="E187" s="21" t="s">
+    <row r="187" spans="1:57" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A187" s="31"/>
+      <c r="B187" s="24"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E187" s="20" t="s">
         <v>211</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>304</v>
       </c>
       <c r="H187" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I187" s="11"/>
       <c r="J187" s="11"/>
@@ -7447,15 +7503,15 @@
       <c r="R187" s="11"/>
       <c r="S187" s="11"/>
       <c r="T187" s="11"/>
-      <c r="Y187" s="23"/>
-      <c r="Z187" s="23"/>
-      <c r="AA187" s="23"/>
-      <c r="AB187" s="23"/>
-      <c r="AC187" s="23"/>
-      <c r="AD187" s="23"/>
-      <c r="AE187" s="23"/>
-      <c r="AF187" s="23"/>
-      <c r="AG187" s="23"/>
+      <c r="Y187" s="22"/>
+      <c r="Z187" s="22"/>
+      <c r="AA187" s="22"/>
+      <c r="AB187" s="22"/>
+      <c r="AC187" s="22"/>
+      <c r="AD187" s="22"/>
+      <c r="AE187" s="22"/>
+      <c r="AF187" s="22"/>
+      <c r="AG187" s="22"/>
       <c r="AY187" s="6"/>
       <c r="AZ187" s="6"/>
       <c r="BA187" s="6"/>
@@ -7464,120 +7520,82 @@
       <c r="BD187" s="6"/>
       <c r="BE187" s="6"/>
     </row>
-    <row r="188" spans="1:57" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A188" s="27"/>
-      <c r="B188" s="25"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E188" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F188" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G188" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H188" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I188" s="11"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="11"/>
-      <c r="L188" s="11"/>
-      <c r="M188" s="11"/>
-      <c r="N188" s="11"/>
-      <c r="O188" s="11"/>
-      <c r="P188" s="11"/>
-      <c r="Q188" s="11"/>
-      <c r="R188" s="11"/>
-      <c r="S188" s="11"/>
-      <c r="T188" s="11"/>
-      <c r="Y188" s="23"/>
-      <c r="Z188" s="23"/>
-      <c r="AA188" s="23"/>
-      <c r="AB188" s="23"/>
-      <c r="AC188" s="23"/>
-      <c r="AD188" s="23"/>
-      <c r="AE188" s="23"/>
-      <c r="AF188" s="23"/>
-      <c r="AG188" s="23"/>
-      <c r="AY188" s="6"/>
-      <c r="AZ188" s="6"/>
-      <c r="BA188" s="6"/>
-      <c r="BB188" s="6"/>
-      <c r="BC188" s="6"/>
-      <c r="BD188" s="6"/>
-      <c r="BE188" s="6"/>
-    </row>
-    <row r="189" spans="1:57" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A189" s="27"/>
-      <c r="B189" s="25"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="E189" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="F189" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G189" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H189" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="I189" s="11"/>
-      <c r="J189" s="11"/>
-      <c r="K189" s="11"/>
-      <c r="L189" s="11"/>
-      <c r="M189" s="11"/>
-      <c r="N189" s="11"/>
-      <c r="O189" s="11"/>
-      <c r="P189" s="11"/>
-      <c r="Q189" s="11"/>
-      <c r="R189" s="11"/>
-      <c r="S189" s="11"/>
-      <c r="T189" s="11"/>
-      <c r="Y189" s="23"/>
-      <c r="Z189" s="23"/>
-      <c r="AA189" s="23"/>
-      <c r="AB189" s="23"/>
-      <c r="AC189" s="23"/>
-      <c r="AD189" s="23"/>
-      <c r="AE189" s="23"/>
-      <c r="AF189" s="23"/>
-      <c r="AG189" s="23"/>
-      <c r="AY189" s="6"/>
-      <c r="AZ189" s="6"/>
-      <c r="BA189" s="6"/>
-      <c r="BB189" s="6"/>
-      <c r="BC189" s="6"/>
-      <c r="BD189" s="6"/>
-      <c r="BE189" s="6"/>
+    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A188" s="31"/>
+      <c r="B188" s="24"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y188" s="8"/>
+      <c r="Z188" s="8"/>
+      <c r="AA188" s="8"/>
+      <c r="AB188" s="8"/>
+      <c r="AC188" s="8"/>
+      <c r="AD188" s="8"/>
+      <c r="AE188" s="8"/>
+      <c r="AF188" s="8"/>
+      <c r="AG188" s="8"/>
+    </row>
+    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A189" s="31"/>
+      <c r="B189" s="24"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y189" s="8"/>
+      <c r="Z189" s="8"/>
+      <c r="AA189" s="8"/>
+      <c r="AB189" s="8"/>
+      <c r="AC189" s="8"/>
+      <c r="AD189" s="8"/>
+      <c r="AE189" s="8"/>
+      <c r="AF189" s="8"/>
+      <c r="AG189" s="8"/>
     </row>
     <row r="190" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A190" s="27"/>
-      <c r="B190" s="25"/>
-      <c r="C190" s="25"/>
+      <c r="A190" s="31"/>
+      <c r="B190" s="24"/>
+      <c r="C190" s="24"/>
       <c r="D190" s="1" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="E190" s="14" t="s">
         <v>193</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="Y190" s="8"/>
       <c r="Z190" s="8"/>
@@ -7590,23 +7608,23 @@
       <c r="AG190" s="8"/>
     </row>
     <row r="191" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A191" s="27"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="25"/>
+      <c r="A191" s="31"/>
+      <c r="B191" s="24"/>
+      <c r="C191" s="24"/>
       <c r="D191" s="1" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="E191" s="14" t="s">
         <v>193</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G191" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Y191" s="8"/>
       <c r="Z191" s="8"/>
@@ -7619,23 +7637,23 @@
       <c r="AG191" s="8"/>
     </row>
     <row r="192" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A192" s="27"/>
-      <c r="B192" s="25"/>
-      <c r="C192" s="25"/>
+      <c r="A192" s="31"/>
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
       <c r="D192" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E192" s="14" t="s">
         <v>193</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Y192" s="8"/>
       <c r="Z192" s="8"/>
@@ -7648,23 +7666,20 @@
       <c r="AG192" s="8"/>
     </row>
     <row r="193" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A193" s="27"/>
-      <c r="B193" s="25"/>
-      <c r="C193" s="25"/>
+      <c r="A193" s="31"/>
+      <c r="B193" s="24"/>
+      <c r="C193" s="24"/>
       <c r="D193" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G193" s="2" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="Y193" s="8"/>
       <c r="Z193" s="8"/>
@@ -7677,23 +7692,23 @@
       <c r="AG193" s="8"/>
     </row>
     <row r="194" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A194" s="27"/>
-      <c r="B194" s="25"/>
-      <c r="C194" s="25"/>
+      <c r="A194" s="31"/>
+      <c r="B194" s="24"/>
+      <c r="C194" s="24"/>
       <c r="D194" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>226</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="Y194" s="8"/>
       <c r="Z194" s="8"/>
@@ -7706,17 +7721,20 @@
       <c r="AG194" s="8"/>
     </row>
     <row r="195" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A195" s="27"/>
-      <c r="B195" s="25"/>
-      <c r="C195" s="25"/>
+      <c r="A195" s="31"/>
+      <c r="B195" s="24"/>
+      <c r="C195" s="24"/>
       <c r="D195" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E195" s="14" t="s">
         <v>212</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>243</v>
@@ -7732,23 +7750,23 @@
       <c r="AG195" s="8"/>
     </row>
     <row r="196" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A196" s="27"/>
-      <c r="B196" s="25"/>
-      <c r="C196" s="25"/>
+      <c r="A196" s="31"/>
+      <c r="B196" s="24"/>
+      <c r="C196" s="24"/>
       <c r="D196" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E196" s="14" t="s">
         <v>212</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="Y196" s="8"/>
       <c r="Z196" s="8"/>
@@ -7761,23 +7779,23 @@
       <c r="AG196" s="8"/>
     </row>
     <row r="197" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A197" s="27"/>
-      <c r="B197" s="25"/>
-      <c r="C197" s="25"/>
+      <c r="A197" s="31"/>
+      <c r="B197" s="24"/>
+      <c r="C197" s="24"/>
       <c r="D197" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E197" s="14" t="s">
         <v>212</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="Y197" s="8"/>
       <c r="Z197" s="8"/>
@@ -7790,20 +7808,20 @@
       <c r="AG197" s="8"/>
     </row>
     <row r="198" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A198" s="27"/>
-      <c r="B198" s="25"/>
-      <c r="C198" s="25"/>
+      <c r="A198" s="31"/>
+      <c r="B198" s="24"/>
+      <c r="C198" s="24"/>
       <c r="D198" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E198" s="14" t="s">
         <v>212</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>305</v>
@@ -7819,23 +7837,23 @@
       <c r="AG198" s="8"/>
     </row>
     <row r="199" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A199" s="27"/>
-      <c r="B199" s="25"/>
-      <c r="C199" s="25"/>
+      <c r="A199" s="31"/>
+      <c r="B199" s="24"/>
+      <c r="C199" s="24"/>
       <c r="D199" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E199" s="14" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="Y199" s="8"/>
       <c r="Z199" s="8"/>
@@ -7848,23 +7866,23 @@
       <c r="AG199" s="8"/>
     </row>
     <row r="200" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A200" s="27"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="25"/>
+      <c r="A200" s="31"/>
+      <c r="B200" s="24"/>
+      <c r="C200" s="24"/>
       <c r="D200" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E200" s="14" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>307</v>
+        <v>217</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="Y200" s="8"/>
       <c r="Z200" s="8"/>
@@ -7877,17 +7895,17 @@
       <c r="AG200" s="8"/>
     </row>
     <row r="201" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A201" s="27"/>
-      <c r="B201" s="25"/>
-      <c r="C201" s="25"/>
+      <c r="A201" s="31"/>
+      <c r="B201" s="24"/>
+      <c r="C201" s="24"/>
       <c r="D201" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E201" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>226</v>
@@ -7906,17 +7924,17 @@
       <c r="AG201" s="8"/>
     </row>
     <row r="202" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A202" s="27"/>
-      <c r="B202" s="25"/>
-      <c r="C202" s="25"/>
+      <c r="A202" s="31"/>
+      <c r="B202" s="24"/>
+      <c r="C202" s="24"/>
       <c r="D202" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E202" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G202" s="2" t="s">
         <v>226</v>
@@ -7935,17 +7953,17 @@
       <c r="AG202" s="8"/>
     </row>
     <row r="203" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A203" s="27"/>
-      <c r="B203" s="25"/>
-      <c r="C203" s="25"/>
+      <c r="A203" s="31"/>
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
       <c r="D203" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E203" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>226</v>
@@ -7964,17 +7982,17 @@
       <c r="AG203" s="8"/>
     </row>
     <row r="204" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A204" s="27"/>
-      <c r="B204" s="25"/>
-      <c r="C204" s="25"/>
+      <c r="A204" s="31"/>
+      <c r="B204" s="24"/>
+      <c r="C204" s="24"/>
       <c r="D204" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E204" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="G204" s="2" t="s">
         <v>226</v>
@@ -7993,17 +8011,17 @@
       <c r="AG204" s="8"/>
     </row>
     <row r="205" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A205" s="27"/>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25"/>
+      <c r="A205" s="31"/>
+      <c r="B205" s="24"/>
+      <c r="C205" s="24"/>
       <c r="D205" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E205" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>226</v>
@@ -8022,17 +8040,17 @@
       <c r="AG205" s="8"/>
     </row>
     <row r="206" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A206" s="27"/>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
+      <c r="A206" s="31"/>
+      <c r="B206" s="24"/>
+      <c r="C206" s="24"/>
       <c r="D206" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E206" s="14" t="s">
         <v>167</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G206" s="2" t="s">
         <v>226</v>
@@ -8051,24 +8069,6 @@
       <c r="AG206" s="8"/>
     </row>
     <row r="207" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A207" s="27"/>
-      <c r="B207" s="25"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E207" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="Y207" s="8"/>
       <c r="Z207" s="8"/>
       <c r="AA207" s="8"/>
@@ -8079,59 +8079,34 @@
       <c r="AF207" s="8"/>
       <c r="AG207" s="8"/>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A208" s="27"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E208" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F208" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y208" s="8"/>
-      <c r="Z208" s="8"/>
-      <c r="AA208" s="8"/>
-      <c r="AB208" s="8"/>
-      <c r="AC208" s="8"/>
-      <c r="AD208" s="8"/>
-      <c r="AE208" s="8"/>
-      <c r="AF208" s="8"/>
-      <c r="AG208" s="8"/>
-    </row>
-    <row r="209" spans="5:33" x14ac:dyDescent="0.2">
-      <c r="Y209" s="8"/>
-      <c r="Z209" s="8"/>
-      <c r="AA209" s="8"/>
-      <c r="AB209" s="8"/>
-      <c r="AC209" s="8"/>
-      <c r="AD209" s="8"/>
-      <c r="AE209" s="8"/>
-      <c r="AF209" s="8"/>
-      <c r="AG209" s="8"/>
-    </row>
-    <row r="210" spans="5:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E210" s="6"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="6"/>
-      <c r="H210" s="6"/>
+    <row r="208" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="20">
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="K49:Q49"/>
     <mergeCell ref="K70:Q70"/>
-    <mergeCell ref="K51:Q51"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="K73:Q73"/>
     <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="A2:A48"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A96:A174"/>
+    <mergeCell ref="A175:A181"/>
+    <mergeCell ref="A182:A206"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A66"/>
+    <mergeCell ref="A67:A95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
